--- a/public/instructivo/Instructivo_Carga_Data_Alumnos_Pregrado.xlsx
+++ b/public/instructivo/Instructivo_Carga_Data_Alumnos_Pregrado.xlsx
@@ -433,12 +433,6 @@
 4: Divorsiado (a)</t>
   </si>
   <si>
-    <t>Indicador si el Alumno sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Discapacidad del Alumno en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
   </si>
   <si>
@@ -474,12 +468,6 @@
     <t>¿CUENTA CON ESCALA DE PAGO?</t>
   </si>
   <si>
-    <t>Indicador si el Alumno cuenta con una Escala de Pago. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna ¿CUENTA CON ESCALA DE PAGO?:
 El código de si cuenta con Escala de Pago no corresponde a los valores posibles de ser consignados. Consigne 1 para SI ó 0 para NO. Corrija la Columna R, Fila n</t>
   </si>
@@ -534,12 +522,6 @@
   </si>
   <si>
     <t>¿REALIZÓ MOVILIDAD NACIONAL?</t>
-  </si>
-  <si>
-    <t>Indicador si el alumno realizó o no Movilidad Nacional. Valores:
-1: Si
-2: No
-Vacío: No</t>
   </si>
   <si>
     <t>Error en la Columna ¿REALIZÓ MOVILIDAD NACIONAL?:
@@ -588,12 +570,6 @@
     <t>¿REALIZÓ MOVILIDAD INTERNACIONAL?</t>
   </si>
   <si>
-    <t>Indicador si el alumno realizó o no Movilidad Internacional. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna ¿REALIZÓ MOVILIDAD INTERNACIONAL?:
 El código de ¿Realizó Movilidad Internacional? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AA, Fila n</t>
   </si>
@@ -640,139 +616,163 @@
     <t>¿ES ALUMNO EN RIESGO?</t>
   </si>
   <si>
+    <t>NRO DE CURSOS EN RIESGO</t>
+  </si>
+  <si>
+    <t>Número de cursos en formato numérico en los que el Alumno se encuentra en riesgo, debe completarse solo si marcó Es Alumno en Riesgo (Valor 1)</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó SI para Es Alumno en Riesgo</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿ES ALUMNO EN RIESGO?:
+El código de ¿Es alumno en riesgo? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AE, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna NRO DE CURSOS EN RIESGO:
+Si ha ingresado que el Alumno es Alumno En Riesgo, ingrese el número de cursos en que se encuentra en riesgo, no puede dejar el registro en blanco. Corrija la Columna AF, Fila n</t>
+  </si>
+  <si>
+    <t>INGRESE LOS CURSOS EN RIESGO SEPARADOS POR (--) Ejmplo:
+curso1 -- curso2 -- curso3</t>
+  </si>
+  <si>
+    <t>Nombre de los cursos en los que el Alumno se encuentra en riesgo, debe completarse solo si marcó Es Alumno en Riesgo (Valor 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto alfanumérico </t>
+  </si>
+  <si>
+    <t>Texto alfanumérico separados por guiones. Ejemplo si marcó 2 cursos :</t>
+  </si>
+  <si>
+    <t>curso1 -- curso2</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Error en la Columna INGRESE LOS CURSOS EN RIESGO SEPARADOS POR (--):
+Si ha ingresado que el Alumno es Alumno En Riesgo, ingrese los cursos en el que el alumno se encuentre en riesgo separados por 2 guiones, la cantidad de cursos ingresados debe corresponder al número de cursos en riesgos indicados en la COLUMNA AF, no puede dejar el registro en blanco. Corrija la Columna AG, Fila n</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Error en la Columna PAÍS DE PROCEDENCIA:
+El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna AH, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
+El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna AI, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna PROVINCIA DE PROCEDENCIA:
+La Provincia de Procedencia ingresado se encuentran en blanco. Corrija la Columna AJ, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
+El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AK, Fila n</t>
+  </si>
+  <si>
+    <t>CORREO ELECTRÓNICO INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo Electrónico institucional del Alumno </t>
+  </si>
+  <si>
+    <t>Texto alfanumérico, formato correo nombre@unasam.edu.pe</t>
+  </si>
+  <si>
+    <t>juan@unasam.edu.pe</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AL, Fila n</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL ALUMNO</t>
+  </si>
+  <si>
+    <t>Dirección de domicilio del Alumno en formato texto</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Error en la Columna DIRECCIÓN DEL ALUMNO:
+El Valor ingresado se encuentran en blanco. Corrija la Columna AM, Fila n</t>
+  </si>
+  <si>
+    <t>CORREO ELECTRÓNICO PERSONAL</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AN, Fila n</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo Electrónico Personal del Alumno </t>
+  </si>
+  <si>
+    <t>Teléfono del Alumno</t>
+  </si>
+  <si>
+    <t>Error en la Columna ESCUELA PROFESIONAL:  
+El Identificador de Escuela Profesional no corresponde a ninguna Escuela Profesional registrada en la base de datos. Corrija la Columna C, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el Alumno sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el Alumno cuenta con una Escala de Pago. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el alumno realizó o no Movilidad Nacional. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el alumno realizó o no Movilidad Internacional. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
     <t>Indicador si el alumno se encuentra en riesgo. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>NRO DE CURSOS EN RIESGO</t>
-  </si>
-  <si>
-    <t>Número de cursos en formato numérico en los que el Alumno se encuentra en riesgo, debe completarse solo si marcó Es Alumno en Riesgo (Valor 1)</t>
-  </si>
-  <si>
-    <t>Obligatorio solo si marcó SI para Es Alumno en Riesgo</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES ALUMNO EN RIESGO?:
-El código de ¿Es alumno en riesgo? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AE, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna NRO DE CURSOS EN RIESGO:
-Si ha ingresado que el Alumno es Alumno En Riesgo, ingrese el número de cursos en que se encuentra en riesgo, no puede dejar el registro en blanco. Corrija la Columna AF, Fila n</t>
-  </si>
-  <si>
-    <t>INGRESE LOS CURSOS EN RIESGO SEPARADOS POR (--) Ejmplo:
-curso1 -- curso2 -- curso3</t>
-  </si>
-  <si>
-    <t>Nombre de los cursos en los que el Alumno se encuentra en riesgo, debe completarse solo si marcó Es Alumno en Riesgo (Valor 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto alfanumérico </t>
-  </si>
-  <si>
-    <t>Texto alfanumérico separados por guiones. Ejemplo si marcó 2 cursos :</t>
-  </si>
-  <si>
-    <t>curso1 -- curso2</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>Error en la Columna INGRESE LOS CURSOS EN RIESGO SEPARADOS POR (--):
-Si ha ingresado que el Alumno es Alumno En Riesgo, ingrese los cursos en el que el alumno se encuentre en riesgo separados por 2 guiones, la cantidad de cursos ingresados debe corresponder al número de cursos en riesgos indicados en la COLUMNA AF, no puede dejar el registro en blanco. Corrija la Columna AG, Fila n</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Error en la Columna PAÍS DE PROCEDENCIA:
-El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna AH, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
-El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna AI, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna PROVINCIA DE PROCEDENCIA:
-La Provincia de Procedencia ingresado se encuentran en blanco. Corrija la Columna AJ, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
-El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AK, Fila n</t>
-  </si>
-  <si>
-    <t>CORREO ELECTRÓNICO INSTITUCIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo Electrónico institucional del Alumno </t>
-  </si>
-  <si>
-    <t>Texto alfanumérico, formato correo nombre@unasam.edu.pe</t>
-  </si>
-  <si>
-    <t>juan@unasam.edu.pe</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AL, Fila n</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL ALUMNO</t>
-  </si>
-  <si>
-    <t>Dirección de domicilio del Alumno en formato texto</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>Error en la Columna DIRECCIÓN DEL ALUMNO:
-El Valor ingresado se encuentran en blanco. Corrija la Columna AM, Fila n</t>
-  </si>
-  <si>
-    <t>CORREO ELECTRÓNICO PERSONAL</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AN, Fila n</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo Electrónico Personal del Alumno </t>
-  </si>
-  <si>
-    <t>Teléfono del Alumno</t>
-  </si>
-  <si>
-    <t>Error en la Columna ESCUELA PROFESIONAL:  
-El Identificador de Escuela Profesional no corresponde a ninguna Escuela Profesional registrada en la base de datos. Corrija la Columna C, Fila n</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1471,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1759,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1788,7 +1788,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>38</v>
@@ -1817,7 +1817,7 @@
         <v>48</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1828,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>64</v>
@@ -1846,7 +1846,7 @@
         <v>59</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1854,10 +1854,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>24</v>
@@ -1869,13 +1869,13 @@
         <v>66</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>62</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="21" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1883,10 +1883,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>24</v>
@@ -1904,7 +1904,7 @@
         <v>53</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1912,13 +1912,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="D26" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>65</v>
@@ -1927,13 +1927,13 @@
         <v>66</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>55</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1941,10 +1941,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>24</v>
@@ -1962,7 +1962,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1970,10 +1970,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>24</v>
@@ -1982,7 +1982,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G28" s="16">
         <v>15</v>
@@ -1991,7 +1991,7 @@
         <v>56</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1999,10 +1999,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>24</v>
@@ -2011,7 +2011,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G29" s="16">
         <v>16</v>
@@ -2020,7 +2020,7 @@
         <v>74</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2028,10 +2028,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>38</v>
@@ -2049,7 +2049,7 @@
         <v>77</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="121.5" x14ac:dyDescent="0.35">
@@ -2057,13 +2057,13 @@
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>23</v>
@@ -2078,7 +2078,7 @@
         <v>81</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -2086,13 +2086,13 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>65</v>
@@ -2101,13 +2101,13 @@
         <v>66</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>82</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
@@ -2115,10 +2115,10 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
@@ -2130,7 +2130,7 @@
         <v>66</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>83</v>
@@ -2142,10 +2142,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>38</v>
@@ -2163,7 +2163,7 @@
         <v>84</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="121.5" x14ac:dyDescent="0.35">
@@ -2171,13 +2171,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>23</v>
@@ -2192,7 +2192,7 @@
         <v>85</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -2200,13 +2200,13 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>65</v>
@@ -2215,13 +2215,13 @@
         <v>66</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>86</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
@@ -2229,10 +2229,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>21</v>
@@ -2244,7 +2244,7 @@
         <v>66</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>87</v>
@@ -2256,10 +2256,10 @@
         <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>38</v>
@@ -2277,7 +2277,7 @@
         <v>88</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2285,13 +2285,13 @@
         <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>23</v>
@@ -2303,10 +2303,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -2314,28 +2314,28 @@
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2361,10 +2361,10 @@
         <v>73</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2390,10 +2390,10 @@
         <v>76</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2419,10 +2419,10 @@
         <v>80</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2448,10 +2448,10 @@
         <v>89</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2459,10 +2459,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>24</v>
@@ -2471,16 +2471,16 @@
         <v>91</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2488,10 +2488,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>24</v>
@@ -2506,10 +2506,10 @@
         <v>90</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2517,10 +2517,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>24</v>
@@ -2535,10 +2535,10 @@
         <v>93</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2549,7 +2549,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>21</v>
@@ -2564,7 +2564,7 @@
         <v>945625285</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I48" s="11"/>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I49" s="11"/>
     </row>
